--- a/biology/Botanique/Primula_allionii/Primula_allionii.xlsx
+++ b/biology/Botanique/Primula_allionii/Primula_allionii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Primula allionii, la primevère d'Allioni, est une espèce de plantes à fleurs de la famille des Primulaceae.
 Le nom fait référence à Carlo Allioni (1728 ou 1729-1804), un médecin et botaniste piémontais.
@@ -512,13 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>C'est une plante vivace. Les feuilles sont persistantes, de 3 à 5 cm de long, de couleurs gris-vert ; elles sont entières, oblancéolées, à poils glanduleux.Ses feuilles forment une rosette.
-Floraison
-De février à avril. Les ombelles sont formées de 1 à 5 fleurs aplaties, de 2 à 3 cm de diamètre, allant du blanc au rose et au rouge pourpré. Les corolles présentent une face plate et un œil blanc.
-Taille
-8 à 10 cm de haut pour 20 cm de diamètre.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace. Les feuilles sont persistantes, de 3 à 5 cm de long, de couleurs gris-vert ; elles sont entières, oblancéolées, à poils glanduleux.Ses feuilles forment une rosette.
+</t>
         </is>
       </c>
     </row>
@@ -543,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cultivar</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Principal cultivar : Primula allionii 'Snowflake' aux fleurs blanches parfois teintées de rose sur les bords.
-</t>
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>De février à avril. Les ombelles sont formées de 1 à 5 fleurs aplaties, de 2 à 3 cm de diamètre, allant du blanc au rose et au rouge pourpré. Les corolles présentent une face plate et un œil blanc.</t>
         </is>
       </c>
     </row>
@@ -574,10 +590,81 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>8 à 10 cm de haut pour 20 cm de diamètre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Primula_allionii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Primula_allionii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cultivar</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Principal cultivar : Primula allionii 'Snowflake' aux fleurs blanches parfois teintées de rose sur les bords.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Primula_allionii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Primula_allionii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée sur l'ensemble du territoire métropolitain.
 </t>
